--- a/ESI-MS-adducts.xlsx
+++ b/ESI-MS-adducts.xlsx
@@ -55,331 +55,343 @@
     <t xml:space="preserve">M+2H </t>
   </si>
   <si>
+    <t xml:space="preserve">M+H+Na </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+H+K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+2Na </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+NH4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+Na </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+ACN+H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+ACN+Na </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+2K+H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+2ACN+H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M+H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M+NH4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M+Na </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M+K </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M+ACN+H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M+ACN+Na </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/3 + 1.007276 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/3 + 8.334590 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/3 + 15.7661904 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/3 + 22.989218 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/2 + 1.007276 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/2 + 9.520550 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/2 + 11.998247 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/2 + 19.985217 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/2 + 21.520550 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/2 + 22.989218 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/2 + 42.033823 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/2 + 62.547097 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 1.007276 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 18.033823 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 22.989218 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 38.963158 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 33.033489 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 42.033823 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 44.971160 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 64.015765 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 76.919040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 79.02122 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 83.060370 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M + 1.007276 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M + 18.033823 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M + 22.989218 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M + 38.963158 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M + 42.033823 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M + 64.015765 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 20.974666 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 34.969402 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 36.948606 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 44.998201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 59.013851 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 78.918885 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M + 112.985586 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M + 44.998201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M + 59.013851 </t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1016/S1044-0305(99)00089-6</t>
+  </si>
+  <si>
+    <t>M+ACN+2H</t>
+  </si>
+  <si>
+    <t>2M+3H2O+2H</t>
+  </si>
+  <si>
+    <t>Tobias Kind</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Result:</t>
+  </si>
+  <si>
+    <t>Your M here:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M + 28.02312 </t>
+  </si>
+  <si>
+    <t>Mult</t>
+  </si>
+  <si>
+    <t>Use Molecular Weight Calculator</t>
+  </si>
+  <si>
+    <t>http://ncrr.pnl.gov/software/</t>
+  </si>
+  <si>
+    <t>http://www.alchemistmatt.com/mwtwin.html</t>
+  </si>
+  <si>
+    <t>(actually this task should be done by every good</t>
+  </si>
+  <si>
+    <t>LC-MS software automatically, directly integrated,</t>
+  </si>
+  <si>
+    <t>no questions asked)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-2H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+K-2H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M-H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M+FA-H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M+Hac-H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3M-H </t>
+  </si>
+  <si>
+    <t>M-H2O-H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/3 - 1.007276 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/2 - 1.007276 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M - 1.007276 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+Na-2H </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M - 1.007276 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3M - 1.007276 </t>
+  </si>
+  <si>
+    <t>M- 19.01839</t>
+  </si>
+  <si>
+    <t>3-</t>
+  </si>
+  <si>
+    <t>2-</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+2Na-H </t>
+  </si>
+  <si>
+    <t>Reverse:</t>
+  </si>
+  <si>
+    <t>M+IsoProp+H</t>
+  </si>
+  <si>
+    <t>M + 61.06534</t>
+  </si>
+  <si>
+    <t>M + 84.05511</t>
+  </si>
+  <si>
+    <t>Your M+X or M-X</t>
+  </si>
+  <si>
     <t xml:space="preserve">M+H+NH4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+H+Na </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+H+K </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+2Na </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+NH4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+Na </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+K </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M+2ACN+2H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">M+CH3OH+H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+ACN+H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+ACN+Na </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+2K+H </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">M+DMSO+H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+2ACN+H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M+H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M+NH4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M+Na </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M+K </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M+ACN+H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M+ACN+Na </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M+IsoProp+Na+H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M+3ACN+2H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">M+Cl </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">M+FA-H </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">M+Hac-H </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">M+Br </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/3 + 1.007276 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/3 + 8.334590 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/3 + 15.7661904 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/3 + 22.989218 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/2 + 1.007276 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/2 + 9.520550 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/2 + 11.998247 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/2 + 19.985217 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/2 + 21.520550 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/2 + 22.989218 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/2 + 42.033823 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/2 + 62.547097 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 1.007276 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 18.033823 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 22.989218 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 38.963158 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 33.033489 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 42.033823 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 44.971160 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 64.015765 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 76.919040 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 79.02122 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 83.060370 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M + 1.007276 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M + 18.033823 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M + 22.989218 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M + 38.963158 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M + 42.033823 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M + 64.015765 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 20.974666 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 34.969402 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 36.948606 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 44.998201 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 59.013851 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 78.918885 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M + 112.985586 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M + 44.998201 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M + 59.013851 </t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1016/S1044-0305(99)00089-6</t>
-  </si>
-  <si>
-    <t>M+ACN+2H</t>
-  </si>
-  <si>
-    <t>M+2ACN+2H</t>
-  </si>
-  <si>
-    <t>M+3ACN+2H</t>
-  </si>
-  <si>
-    <t>2M+3H2O+2H</t>
-  </si>
-  <si>
-    <t>Tobias Kind</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>Result:</t>
-  </si>
-  <si>
-    <t>Your M here:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M + 28.02312 </t>
-  </si>
-  <si>
-    <t>Mult</t>
-  </si>
-  <si>
-    <t>Use Molecular Weight Calculator</t>
-  </si>
-  <si>
-    <t>http://ncrr.pnl.gov/software/</t>
-  </si>
-  <si>
-    <t>http://www.alchemistmatt.com/mwtwin.html</t>
-  </si>
-  <si>
-    <t>(actually this task should be done by every good</t>
-  </si>
-  <si>
-    <t>LC-MS software automatically, directly integrated,</t>
-  </si>
-  <si>
-    <t>no questions asked)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">M+TFA-H </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">M-3H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-2H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M-H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+K-2H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+FA-H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+Hac-H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+TFA-H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M-H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M+FA-H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M+Hac-H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3M-H </t>
-  </si>
-  <si>
-    <t>M-H2O-H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/3 - 1.007276 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M/2 - 1.007276 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M - 1.007276 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+Na-2H </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2M - 1.007276 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3M - 1.007276 </t>
-  </si>
-  <si>
-    <t>M- 19.01839</t>
-  </si>
-  <si>
-    <t>3-</t>
-  </si>
-  <si>
-    <t>2-</t>
-  </si>
-  <si>
-    <t>1-</t>
-  </si>
-  <si>
-    <t>3+</t>
-  </si>
-  <si>
-    <t>2+</t>
-  </si>
-  <si>
-    <t>1+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M+2Na-H </t>
-  </si>
-  <si>
-    <t>Reverse:</t>
-  </si>
-  <si>
-    <t>M+IsoProp+H</t>
-  </si>
-  <si>
-    <t>M + 61.06534</t>
-  </si>
-  <si>
-    <t>M+IsoProp+Na+H</t>
-  </si>
-  <si>
-    <t>M + 84.05511</t>
-  </si>
-  <si>
-    <t>Your M+X or M-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -387,8 +399,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="188" formatCode="0.000000"/>
-    <numFmt numFmtId="189" formatCode="0.00000"/>
+    <numFmt numFmtId="176" formatCode="0.000000"/>
+    <numFmt numFmtId="177" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -421,7 +433,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +449,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,14 +475,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="189" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -472,6 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -589,8 +608,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>48683</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -1243,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1253,7 +1272,7 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="2.140625" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="2" customWidth="1"/>
@@ -1265,7 +1284,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1279,10 +1298,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1304,17 +1323,17 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1322,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1330,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D11" s="7">
         <f>1/3</f>
@@ -1342,7 +1361,7 @@
       <c r="E11" s="4">
         <v>1.0072760000000001</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="10">
         <f>E11+$G$8*D11</f>
         <v>285.45090599999997</v>
       </c>
@@ -1357,10 +1376,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D12" s="7">
         <f>1/3</f>
@@ -1369,7 +1388,7 @@
       <c r="E12" s="4">
         <v>8.3345900000000004</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="10">
         <f t="shared" ref="G12:G42" si="1">E12+$G$8*D12</f>
         <v>292.77821999999998</v>
       </c>
@@ -1379,7 +1398,7 @@
         <v>283.77207666666669</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1387,10 +1406,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D13" s="7">
         <f>1/3</f>
@@ -1399,7 +1418,7 @@
       <c r="E13" s="4">
         <v>15.766190399999999</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="10">
         <f t="shared" si="1"/>
         <v>300.20982040000001</v>
       </c>
@@ -1409,7 +1428,7 @@
         <v>276.34047626666666</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1417,10 +1436,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="D14" s="7">
         <f>1/3</f>
@@ -1429,7 +1448,7 @@
       <c r="E14" s="4">
         <v>22.989218000000001</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="10">
         <f t="shared" si="1"/>
         <v>307.43284799999998</v>
       </c>
@@ -1439,7 +1458,7 @@
         <v>269.11744866666669</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1447,10 +1466,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D15">
         <f t="shared" ref="D15:D22" si="2">1/2</f>
@@ -1459,7 +1478,7 @@
       <c r="E15" s="4">
         <v>1.0072760000000001</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="10">
         <f t="shared" si="1"/>
         <v>427.67272099999997</v>
       </c>
@@ -1471,13 +1490,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
@@ -1486,7 +1505,7 @@
       <c r="E16" s="4">
         <v>9.5205500000000001</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="10">
         <f t="shared" si="1"/>
         <v>436.18599499999999</v>
       </c>
@@ -1498,13 +1517,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
@@ -1513,7 +1532,7 @@
       <c r="E17" s="4">
         <v>11.998246999999999</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="10">
         <f t="shared" si="1"/>
         <v>438.66369199999997</v>
       </c>
@@ -1523,18 +1542,18 @@
         <v>426.16175300000003</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
@@ -1543,7 +1562,7 @@
       <c r="E18" s="4">
         <v>19.985216999999999</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="10">
         <f t="shared" si="1"/>
         <v>446.65066199999995</v>
       </c>
@@ -1553,18 +1572,18 @@
         <v>418.17478300000005</v>
       </c>
       <c r="L18" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
@@ -1573,7 +1592,7 @@
       <c r="E19" s="4">
         <v>21.52055</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="10">
         <f t="shared" si="1"/>
         <v>448.18599499999999</v>
       </c>
@@ -1583,18 +1602,18 @@
         <v>416.63945000000001</v>
       </c>
       <c r="L19" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
@@ -1603,7 +1622,7 @@
       <c r="E20" s="4">
         <v>22.989218000000001</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="10">
         <f t="shared" si="1"/>
         <v>449.65466299999997</v>
       </c>
@@ -1615,13 +1634,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
@@ -1630,7 +1649,7 @@
       <c r="E21" s="4">
         <v>42.033822999999998</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="10">
         <f t="shared" si="1"/>
         <v>468.69926799999996</v>
       </c>
@@ -1642,13 +1661,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
@@ -1657,7 +1676,7 @@
       <c r="E22" s="4">
         <v>62.547097000000001</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="10">
         <f t="shared" si="1"/>
         <v>489.21254199999998</v>
       </c>
@@ -1669,13 +1688,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1683,7 +1702,7 @@
       <c r="E23" s="4">
         <v>1.0072760000000001</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="10">
         <f t="shared" si="1"/>
         <v>854.338166</v>
       </c>
@@ -1695,13 +1714,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1709,7 +1728,7 @@
       <c r="E24" s="4">
         <v>18.033823000000002</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="10">
         <f t="shared" si="1"/>
         <v>871.36471299999994</v>
       </c>
@@ -1721,13 +1740,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1735,7 +1754,7 @@
       <c r="E25" s="4">
         <v>22.989218000000001</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="10">
         <f t="shared" si="1"/>
         <v>876.320108</v>
       </c>
@@ -1747,13 +1766,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1761,7 +1780,7 @@
       <c r="E26" s="4">
         <v>33.033489000000003</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="10">
         <f t="shared" si="1"/>
         <v>886.36437899999999</v>
       </c>
@@ -1773,13 +1792,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1787,7 +1806,7 @@
       <c r="E27" s="4">
         <v>38.963158</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="10">
         <f t="shared" si="1"/>
         <v>892.29404799999998</v>
       </c>
@@ -1799,13 +1818,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1813,7 +1832,7 @@
       <c r="E28" s="4">
         <v>42.033822999999998</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="10">
         <f t="shared" si="1"/>
         <v>895.36471299999994</v>
       </c>
@@ -1825,13 +1844,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1839,7 +1858,7 @@
       <c r="E29" s="4">
         <v>44.971159999999998</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="10">
         <f t="shared" si="1"/>
         <v>898.30205000000001</v>
       </c>
@@ -1851,13 +1870,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1865,7 +1884,7 @@
       <c r="E30" s="4">
         <v>61.065339999999999</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="10">
         <f t="shared" si="1"/>
         <v>914.39622999999995</v>
       </c>
@@ -1877,13 +1896,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -1891,7 +1910,7 @@
       <c r="E31" s="4">
         <v>64.015765000000002</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="10">
         <f t="shared" si="1"/>
         <v>917.34665499999994</v>
       </c>
@@ -1903,13 +1922,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1917,7 +1936,7 @@
       <c r="E32" s="4">
         <v>76.919039999999995</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="10">
         <f t="shared" si="1"/>
         <v>930.24992999999995</v>
       </c>
@@ -1929,13 +1948,13 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1943,7 +1962,7 @@
       <c r="E33" s="4">
         <v>79.02122</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="10">
         <f t="shared" si="1"/>
         <v>932.35210999999993</v>
       </c>
@@ -1955,13 +1974,13 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1969,7 +1988,7 @@
       <c r="E34" s="4">
         <v>83.060370000000006</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="10">
         <f t="shared" si="1"/>
         <v>936.39125999999999</v>
       </c>
@@ -1981,13 +2000,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1995,7 +2014,7 @@
       <c r="E35" s="4">
         <v>84.055109999999999</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="10">
         <f t="shared" si="1"/>
         <v>937.38599999999997</v>
       </c>
@@ -2007,13 +2026,13 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2021,7 +2040,7 @@
       <c r="E36" s="4">
         <v>1.0072760000000001</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="10">
         <f t="shared" si="1"/>
         <v>1707.669056</v>
       </c>
@@ -2033,13 +2052,13 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2047,7 +2066,7 @@
       <c r="E37" s="4">
         <v>18.033823000000002</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="10">
         <f t="shared" si="1"/>
         <v>1724.6956029999999</v>
       </c>
@@ -2059,13 +2078,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2073,7 +2092,7 @@
       <c r="E38" s="4">
         <v>22.989218000000001</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="10">
         <f t="shared" si="1"/>
         <v>1729.6509979999998</v>
       </c>
@@ -2085,13 +2104,13 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2099,7 +2118,7 @@
       <c r="E39" s="4">
         <v>28.023119999999999</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="10">
         <f t="shared" si="1"/>
         <v>1734.6849</v>
       </c>
@@ -2111,13 +2130,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2125,7 +2144,7 @@
       <c r="E40" s="4">
         <v>38.963158</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="10">
         <f t="shared" si="1"/>
         <v>1745.6249379999999</v>
       </c>
@@ -2137,13 +2156,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2151,7 +2170,7 @@
       <c r="E41" s="4">
         <v>42.033822999999998</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="10">
         <f t="shared" si="1"/>
         <v>1748.6956029999999</v>
       </c>
@@ -2163,13 +2182,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2177,7 +2196,7 @@
       <c r="E42" s="4">
         <v>64.015765000000002</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="10">
         <f t="shared" si="1"/>
         <v>1770.677545</v>
       </c>
@@ -2215,13 +2234,13 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D47">
         <f>1/3</f>
@@ -2242,13 +2261,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D48">
         <f>1/2</f>
@@ -2269,13 +2288,13 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -2295,13 +2314,13 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -2321,13 +2340,13 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -2347,13 +2366,13 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -2373,13 +2392,13 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -2399,13 +2418,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2425,13 +2444,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -2451,13 +2470,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -2477,13 +2496,13 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -2503,13 +2522,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C58" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -2529,13 +2548,13 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -2555,13 +2574,13 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -2581,13 +2600,13 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" t="s">
         <v>100</v>
-      </c>
-      <c r="B61" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" t="s">
-        <v>111</v>
       </c>
       <c r="D61">
         <v>3</v>

--- a/ESI-MS-adducts.xlsx
+++ b/ESI-MS-adducts.xlsx
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2249,7 +2249,7 @@
       <c r="E47" s="4">
         <v>-1.0072760000000001</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="10">
         <f t="shared" ref="G47:G61" si="4">$G$8*D47+E47</f>
         <v>283.43635399999999</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="E48" s="4">
         <v>-1.0072760000000001</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="10">
         <f t="shared" si="4"/>
         <v>425.65816899999999</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="E49">
         <v>-19.01839</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="10">
         <f t="shared" si="4"/>
         <v>834.3125</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="E50" s="4">
         <v>-1.0072760000000001</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="10">
         <f t="shared" si="4"/>
         <v>852.32361399999991</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="E51" s="4">
         <v>20.974665999999999</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="10">
         <f t="shared" si="4"/>
         <v>874.30555599999991</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="E52" s="4">
         <v>34.969402000000002</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="10">
         <f t="shared" si="4"/>
         <v>888.3002919999999</v>
       </c>
@@ -2406,7 +2406,7 @@
       <c r="E53" s="4">
         <v>36.948605999999998</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="10">
         <f t="shared" si="4"/>
         <v>890.27949599999999</v>
       </c>
@@ -2432,7 +2432,7 @@
       <c r="E54" s="4">
         <v>44.998201000000002</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="10">
         <f t="shared" si="4"/>
         <v>898.32909099999995</v>
       </c>
@@ -2458,7 +2458,7 @@
       <c r="E55" s="4">
         <v>59.013851000000003</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="10">
         <f t="shared" si="4"/>
         <v>912.344741</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="E56" s="4">
         <v>78.918885000000003</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="10">
         <f t="shared" si="4"/>
         <v>932.249775</v>
       </c>
@@ -2510,7 +2510,7 @@
       <c r="E57" s="4">
         <v>112.985586</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="10">
         <f t="shared" si="4"/>
         <v>966.31647599999997</v>
       </c>
@@ -2536,7 +2536,7 @@
       <c r="E58" s="4">
         <v>-1.0072760000000001</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="10">
         <f t="shared" si="4"/>
         <v>1705.6545039999999</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="E59" s="4">
         <v>44.998201000000002</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="10">
         <f t="shared" si="4"/>
         <v>1751.659981</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="E60" s="4">
         <v>59.013851000000003</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="10">
         <f t="shared" si="4"/>
         <v>1765.6756309999998</v>
       </c>
@@ -2614,7 +2614,7 @@
       <c r="E61" s="4">
         <v>1.0072760000000001</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="10">
         <f t="shared" si="4"/>
         <v>2560.9999459999995</v>
       </c>
